--- a/jdocs/Macro1/FinalGradeCheck.xlsx
+++ b/jdocs/Macro1/FinalGradeCheck.xlsx
@@ -36,9 +36,6 @@
     <t>Final grade letter:</t>
   </si>
   <si>
-    <t>Precent before Chips:</t>
-  </si>
-  <si>
     <t xml:space="preserve">MidtermExam1 </t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t xml:space="preserve">HomeworkAssignments </t>
   </si>
   <si>
-    <t>Econ 202 - Grade calculator</t>
-  </si>
-  <si>
     <t>iClickers</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>Curve:</t>
+  </si>
+  <si>
+    <t>Precent:</t>
+  </si>
+  <si>
+    <t>Econ 202 - Grade Calculator</t>
   </si>
 </sst>
 </file>
@@ -257,6 +257,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,7 +267,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,12 +843,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>30</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -964,10 +964,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>0.01</v>
       </c>
       <c r="D10" s="14">

--- a/jdocs/Macro1/FinalGradeCheck.xlsx
+++ b/jdocs/Macro1/FinalGradeCheck.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Towson\teaching\1_MacroPrinciples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19290" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="486" windowWidth="19290" windowHeight="10038"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,9 +50,6 @@
     <t xml:space="preserve">HomeworkAssignments </t>
   </si>
   <si>
-    <t>iClickers</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
@@ -58,6 +60,9 @@
   </si>
   <si>
     <t>Econ 202 - Grade Calculator</t>
+  </si>
+  <si>
+    <t>Online Assignments</t>
   </si>
 </sst>
 </file>
@@ -274,77 +279,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -474,19 +414,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>iClicker average percentage:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Before you calculate the average iClicker percentage from the  Blackboard raw scores, you can drop the 6 lowest  days.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> - Then calculate the iClicker percentage for each day</a:t>
+            <a:t>Online Assignments average percentage:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Before you calculate the average score for the Online Assignments from the  Blackboard raw scores, you can drop the 2 lowest  scores.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - Then calculate the Online Assignment percentage for each submission day</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -498,7 +438,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> - Fill this average percentage into the blue  box on the left in the iClicker row (simply overwrite the number there)</a:t>
+            <a:t> - Fill this average percentage into the blue  box on the left in the Online Assignment row (simply overwrite the number there)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -550,7 +490,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F0F0F0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -585,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,7 +560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,26 +771,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -862,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -877,9 +817,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -892,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -907,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -922,9 +862,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>30</v>
@@ -937,7 +877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -951,9 +891,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -962,9 +902,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="16">
@@ -975,7 +915,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -986,7 +926,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
